--- a/ZiiPOS_MenuTemplate.xlsx
+++ b/ZiiPOS_MenuTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nan_Dev\ZiiPOSMenuConvertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nan_Dev\ZiiPOSMenuConvertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD696C-8549-4B87-9A33-B9D07332FB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82BA92F-5AE8-42DF-8359-18C228BC061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="345" windowWidth="21600" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="203">
   <si>
     <t>ExportTime</t>
   </si>
@@ -199,15 +199,9 @@
     <t>010</t>
   </si>
   <si>
-    <t>To Finish</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>AE9990</t>
-  </si>
-  <si>
     <t>Drinks</t>
   </si>
   <si>
@@ -644,6 +638,9 @@
   </si>
   <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>Food</t>
   </si>
 </sst>
 </file>
@@ -699,9 +696,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,7 +736,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -845,7 +842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -987,7 +984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1001,14 +998,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1026,44 +1023,44 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>186</v>
-      </c>
-      <c r="E1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>188</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1079,26 +1076,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>194</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1114,29 +1111,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>199</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1152,35 +1149,35 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
         <v>188</v>
       </c>
-      <c r="H1" t="s">
-        <v>190</v>
-      </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -1205,14 +1202,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1273,33 +1270,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1317,14 +1314,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1372,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1395,13 +1392,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1493,45 +1495,45 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1554,23 +1556,20 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>57</v>
-      </c>
       <c r="X2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="AB2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1584,29 +1583,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1622,82 +1621,82 @@
       <selection activeCell="DK10" sqref="DK10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="18" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="113" max="116" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="116" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="29" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>83</v>
-      </c>
-      <c r="S1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" t="s">
-        <v>85</v>
       </c>
       <c r="U1" t="s">
         <v>18</v>
@@ -1706,151 +1705,151 @@
         <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y1" t="s">
         <v>28</v>
       </c>
       <c r="Z1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>90</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>91</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>99</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>100</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>101</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>102</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>103</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" t="s">
         <v>104</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>105</v>
       </c>
-      <c r="AR1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>107</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>109</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>110</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>113</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>114</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>115</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>116</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>117</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>118</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>119</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>120</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>121</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>123</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>125</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>126</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>127</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>128</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>129</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>130</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>132</v>
       </c>
       <c r="BT1" t="s">
         <v>47</v>
@@ -1859,100 +1858,100 @@
         <v>48</v>
       </c>
       <c r="BV1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BX1" t="s">
         <v>133</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>134</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>135</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>136</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>137</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>138</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>139</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>140</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>141</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>142</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>143</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>144</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>145</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>146</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>147</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>148</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>149</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>150</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>151</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>152</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>153</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>154</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>155</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>156</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>157</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>158</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>159</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>160</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>162</v>
       </c>
       <c r="CZ1" t="s">
         <v>46</v>
       </c>
       <c r="DA1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="DB1" t="s">
         <v>5</v>
@@ -1961,13 +1960,13 @@
         <v>49</v>
       </c>
       <c r="DD1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF1" t="s">
         <v>164</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>166</v>
       </c>
       <c r="DG1" t="s">
         <v>51</v>
@@ -1976,54 +1975,54 @@
         <v>52</v>
       </c>
       <c r="DI1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DK1" t="s">
         <v>167</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>168</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>170</v>
       </c>
       <c r="DM1" t="s">
         <v>4</v>
       </c>
       <c r="DN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DP1" t="s">
         <v>171</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>172</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>173</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>174</v>
       </c>
-      <c r="DR1" t="s">
+    </row>
+    <row r="2" spans="1:123" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>175</v>
       </c>
-      <c r="DS1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2053,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W2">
         <v>300</v>
@@ -2065,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z2" t="b">
         <v>1</v>
@@ -2122,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="AR2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS2" t="b">
         <v>0</v>
@@ -2170,64 +2169,64 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BK2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BM2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BO2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BV2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BX2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BY2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BZ2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CA2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CB2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CD2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CE2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CF2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CG2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CH2" t="b">
         <v>0</v>
@@ -2278,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="DB2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="DD2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="DE2">
         <v>0</v>
@@ -2323,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="DR2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="DS2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2342,17 +2341,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2368,26 +2367,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
         <v>181</v>
-      </c>
-      <c r="E1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2399,16 +2398,16 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
